--- a/playground/example_output_ha_all_groups.xlsx
+++ b/playground/example_output_ha_all_groups.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gercken\Documents\TI_BZE_BE_analysis\playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85819995-EDFC-4AAD-A118-0F0F34C46758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F54F2B-332D-4FC5-8046-2300CC095FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="48">
   <si>
     <t>plot_ID</t>
   </si>
@@ -136,6 +145,39 @@
   </si>
   <si>
     <t>regeneration stock of species  per plot no matter what stand they are in</t>
+  </si>
+  <si>
+    <t>regeneration stock per plot,  all species and stands together</t>
+  </si>
+  <si>
+    <t>deadwood stocks for each plot by species and decay type</t>
+  </si>
+  <si>
+    <t>deadwood stocks for the respective plot per deadwood species group per deadwood type</t>
+  </si>
+  <si>
+    <t>Deadwood stocks at the respective plot per deadwood species group per deadwood type per decay type</t>
+  </si>
+  <si>
+    <t>living tree stocks per stand type in all compartiments (but not grouped by species or stand)</t>
+  </si>
+  <si>
+    <t>deadwood stocks for each plot by deadwood type and decay type summarized over all species</t>
+  </si>
+  <si>
+    <t>stocks of all stand components together for the whole plot in the three main compartiments "ag", "bg" "total"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadwood stocks for each plot by  deadwood type with additional info about standing or laying deadwood type so oner could further summarize the data from here. Stocks are summarized over all species and decay type </t>
+  </si>
+  <si>
+    <t>deadwood stocks at the respective plot summarized by decay type</t>
+  </si>
+  <si>
+    <t>deadwood stocks at the respective plot summarized by deadwood species group</t>
+  </si>
+  <si>
+    <t>deadwood stocks at the respective plot in the available compartiments, no further grouping variables</t>
   </si>
 </sst>
 </file>
@@ -350,6 +392,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -359,17 +410,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,15 +693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -700,7 +743,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -738,7 +781,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
@@ -774,7 +817,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -810,7 +853,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
@@ -846,7 +889,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
@@ -882,7 +925,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -918,7 +961,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
@@ -954,7 +997,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
@@ -990,7 +1033,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1069,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1064,7 +1107,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1143,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1136,7 +1179,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1215,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
@@ -1208,7 +1251,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -1244,7 +1287,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1323,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1316,7 +1359,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1395,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1390,7 +1433,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1426,7 +1469,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
@@ -1462,7 +1505,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1541,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
@@ -1534,7 +1577,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -1570,7 +1613,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
@@ -1606,7 +1649,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1685,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="12" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +1721,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1716,7 +1759,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +1795,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1831,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
@@ -1824,7 +1867,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
@@ -1860,7 +1903,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1896,7 +1939,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1975,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +2011,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
@@ -2004,14 +2047,14 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>35</v>
+      <c r="A38" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="7">
-        <v>140037</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>11</v>
@@ -2020,10 +2063,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>16</v>
@@ -2044,10 +2087,10 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="4">
-        <v>140037</v>
+        <v>15</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>11</v>
@@ -2056,10 +2099,10 @@
         <v>16</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>16</v>
@@ -2074,16 +2117,16 @@
         <v>16</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="4">
-        <v>140037</v>
+        <v>15</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>11</v>
@@ -2092,10 +2135,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>16</v>
@@ -2116,10 +2159,10 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="4">
-        <v>140037</v>
+        <v>15</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>11</v>
@@ -2128,10 +2171,10 @@
         <v>16</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>16</v>
@@ -2146,16 +2189,16 @@
         <v>16</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="4">
-        <v>140037</v>
+        <v>15</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>11</v>
@@ -2164,10 +2207,10 @@
         <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>16</v>
@@ -2182,16 +2225,16 @@
         <v>16</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="4">
-        <v>140037</v>
+        <v>15</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>11</v>
@@ -2200,10 +2243,10 @@
         <v>16</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>16</v>
@@ -2218,16 +2261,16 @@
         <v>16</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="4">
-        <v>140037</v>
+        <v>15</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>11</v>
@@ -2236,10 +2279,10 @@
         <v>16</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>16</v>
@@ -2254,189 +2297,189 @@
         <v>16</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="C47" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="11" t="s">
+      <c r="G47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="11" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2454,7 +2497,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>28</v>
@@ -2472,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2490,7 +2533,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>28</v>
@@ -2508,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2526,7 +2569,7 @@
         <v>16</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>28</v>
@@ -2544,7 +2587,7 @@
         <v>16</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2562,10 +2605,10 @@
         <v>16</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>16</v>
@@ -2580,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2598,10 +2641,10 @@
         <v>16</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>16</v>
@@ -2616,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2634,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>27</v>
@@ -2652,7 +2695,7 @@
         <v>16</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2670,7 +2713,7 @@
         <v>16</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>27</v>
@@ -2688,153 +2731,153 @@
         <v>16</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="C57" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="11" t="s">
+      <c r="H57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="15" t="s">
-        <v>25</v>
+      <c r="C59" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>14</v>
+      <c r="C60" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2852,10 +2895,10 @@
         <v>16</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>16</v>
@@ -2870,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2888,10 +2931,10 @@
         <v>16</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>16</v>
@@ -2906,7 +2949,7 @@
         <v>16</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,10 +2967,10 @@
         <v>16</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>16</v>
@@ -2942,620 +2985,594 @@
         <v>16</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="13" t="s">
+      <c r="C64" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="15" t="s">
+      <c r="G69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
+      <c r="B72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
-        <v>63</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="4" t="s">
+      <c r="C74" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
-        <v>64</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="4" t="s">
+      <c r="C75" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <v>65</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+      <c r="B76" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" s="4" t="s">
+      <c r="C76" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
-        <v>66</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
+      <c r="B77" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68" s="4" t="s">
+      <c r="C77" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
-        <v>67</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69" s="4" t="s">
+      <c r="C78" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
-        <v>68</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="C79" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="7">
         <v>1</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I79" s="7">
         <v>1</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J79" s="7">
         <v>2</v>
       </c>
-      <c r="K70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L70" s="4" t="s">
+      <c r="K79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
-        <v>69</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="4">
-        <v>1</v>
-      </c>
-      <c r="I71" s="4">
-        <v>1</v>
-      </c>
-      <c r="J71" s="4">
-        <v>3</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="21">
-        <v>70</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="4">
-        <v>1</v>
-      </c>
-      <c r="I72" s="4">
-        <v>1</v>
-      </c>
-      <c r="J72" s="4">
-        <v>4</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
-        <v>71</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="4">
-        <v>1</v>
-      </c>
-      <c r="I73" s="4">
-        <v>4</v>
-      </c>
-      <c r="J73" s="4">
-        <v>2</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
-        <v>72</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="4">
-        <v>1</v>
-      </c>
-      <c r="I74" s="4">
-        <v>4</v>
-      </c>
-      <c r="J74" s="4">
-        <v>2</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
-        <v>73</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="4">
-        <v>1</v>
-      </c>
-      <c r="I75" s="4">
-        <v>4</v>
-      </c>
-      <c r="J75" s="4">
-        <v>2</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
-        <v>74</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="4">
-        <v>1</v>
-      </c>
-      <c r="I76" s="4">
-        <v>4</v>
-      </c>
-      <c r="J76" s="4">
-        <v>3</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="21">
-        <v>75</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="4">
-        <v>1</v>
-      </c>
-      <c r="I77" s="4">
-        <v>4</v>
-      </c>
-      <c r="J77" s="4">
-        <v>4</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
-        <v>76</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="4">
-        <v>1</v>
-      </c>
-      <c r="I78" s="4">
-        <v>4</v>
-      </c>
-      <c r="J78" s="4">
-        <v>5</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="21">
-        <v>77</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="4">
-        <v>1</v>
-      </c>
-      <c r="I79" s="4">
-        <v>1</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="21">
-        <v>78</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="20"/>
+      <c r="B80" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C80" s="4">
@@ -3577,23 +3594,21 @@
         <v>1</v>
       </c>
       <c r="I80" s="4">
-        <v>4</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="J80" s="4">
+        <v>3</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L80" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="21">
-        <v>79</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="20"/>
+      <c r="B81" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C81" s="4">
@@ -3615,23 +3630,21 @@
         <v>1</v>
       </c>
       <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4">
         <v>4</v>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L81" s="4" t="s">
-        <v>22</v>
+      <c r="L81" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="21">
-        <v>80</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="20"/>
+      <c r="B82" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C82" s="4">
@@ -3655,21 +3668,19 @@
       <c r="I82" s="4">
         <v>4</v>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>13</v>
+      <c r="J82" s="4">
+        <v>2</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L82" s="4" t="s">
-        <v>23</v>
+      <c r="L82" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="21">
-        <v>81</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="20"/>
+      <c r="B83" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C83" s="4">
@@ -3690,8 +3701,8 @@
       <c r="H83" s="4">
         <v>1</v>
       </c>
-      <c r="I83" s="4" t="s">
-        <v>13</v>
+      <c r="I83" s="4">
+        <v>4</v>
       </c>
       <c r="J83" s="4">
         <v>2</v>
@@ -3699,15 +3710,13 @@
       <c r="K83" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>14</v>
+      <c r="L83" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="21">
-        <v>82</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="20"/>
+      <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C84" s="4">
@@ -3728,8 +3737,8 @@
       <c r="H84" s="4">
         <v>1</v>
       </c>
-      <c r="I84" s="4" t="s">
-        <v>13</v>
+      <c r="I84" s="4">
+        <v>4</v>
       </c>
       <c r="J84" s="4">
         <v>2</v>
@@ -3737,15 +3746,13 @@
       <c r="K84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L84" s="4" t="s">
-        <v>22</v>
+      <c r="L84" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="21">
-        <v>83</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="20"/>
+      <c r="B85" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="4">
@@ -3766,24 +3773,22 @@
       <c r="H85" s="4">
         <v>1</v>
       </c>
-      <c r="I85" s="4" t="s">
-        <v>13</v>
+      <c r="I85" s="4">
+        <v>4</v>
       </c>
       <c r="J85" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L85" s="4" t="s">
-        <v>23</v>
+      <c r="L85" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="21">
-        <v>84</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="20"/>
+      <c r="B86" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C86" s="4">
@@ -3804,100 +3809,96 @@
       <c r="H86" s="4">
         <v>1</v>
       </c>
-      <c r="I86" s="4" t="s">
-        <v>13</v>
+      <c r="I86" s="4">
+        <v>4</v>
       </c>
       <c r="J86" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L86" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="21">
-        <v>85</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="21"/>
+      <c r="B87" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="C87" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="13">
         <v>1</v>
       </c>
-      <c r="I87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J87" s="4">
+      <c r="I87" s="13">
         <v>4</v>
       </c>
-      <c r="K87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87" s="4" t="s">
+      <c r="J87" s="13">
+        <v>5</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="21">
-        <v>86</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="4">
+      <c r="C88" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="7">
         <v>1</v>
       </c>
-      <c r="I88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="4">
-        <v>5</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="4" t="s">
+      <c r="I88" s="7">
+        <v>1</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="21">
-        <v>87</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="20"/>
+      <c r="B89" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C89" s="4">
@@ -3915,163 +3916,157 @@
       <c r="G89" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>13</v>
+      <c r="H89" s="4">
+        <v>1</v>
       </c>
       <c r="I89" s="4">
+        <v>4</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="4">
         <v>1</v>
       </c>
-      <c r="J89" s="4">
+      <c r="I90" s="4">
+        <v>4</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="13">
+        <v>1</v>
+      </c>
+      <c r="I91" s="13">
+        <v>4</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="7">
         <v>2</v>
       </c>
-      <c r="K89" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="4" t="s">
+      <c r="K92" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="21">
-        <v>88</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="4">
+      <c r="C93" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="4">
         <v>1</v>
       </c>
-      <c r="J90" s="4">
-        <v>3</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
-        <v>89</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1</v>
-      </c>
-      <c r="J91" s="4">
-        <v>4</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="21">
-        <v>90</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="4">
-        <v>4</v>
-      </c>
-      <c r="J92" s="4">
-        <v>2</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="21">
-        <v>91</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C93" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="4">
-        <v>4</v>
+      <c r="I93" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J93" s="4">
         <v>2</v>
@@ -4079,15 +4074,13 @@
       <c r="K93" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="L93" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="21">
-        <v>92</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="20"/>
+      <c r="B94" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C94" s="4">
@@ -4105,11 +4098,11 @@
       <c r="G94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="4">
-        <v>4</v>
+      <c r="H94" s="4">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J94" s="4">
         <v>2</v>
@@ -4117,15 +4110,13 @@
       <c r="K94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="L94" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="21">
-        <v>93</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="20"/>
+      <c r="B95" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="4">
@@ -4143,11 +4134,11 @@
       <c r="G95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="4">
-        <v>4</v>
+      <c r="H95" s="4">
+        <v>1</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J95" s="4">
         <v>3</v>
@@ -4155,15 +4146,13 @@
       <c r="K95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="L95" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="21">
-        <v>94</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="20"/>
+      <c r="B96" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C96" s="4">
@@ -4181,11 +4170,11 @@
       <c r="G96" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="4">
-        <v>4</v>
+      <c r="H96" s="4">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J96" s="4">
         <v>4</v>
@@ -4193,167 +4182,159 @@
       <c r="K96" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="L96" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="21">
-        <v>95</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="A97" s="21"/>
+      <c r="B97" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="4">
+      <c r="C97" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="13">
+        <v>1</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="13">
+        <v>5</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="7">
+        <v>1</v>
+      </c>
+      <c r="J98" s="7">
+        <v>2</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="17"/>
+      <c r="B99" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1</v>
+      </c>
+      <c r="J99" s="4">
+        <v>3</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="17"/>
+      <c r="B100" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1</v>
+      </c>
+      <c r="J100" s="4">
         <v>4</v>
       </c>
-      <c r="J97" s="4">
-        <v>5</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97" s="4" t="s">
+      <c r="K100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="21">
-        <v>96</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="4">
-        <v>1</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="21">
-        <v>97</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="4">
-        <v>4</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="21">
-        <v>98</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="4">
-        <v>4</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="21">
-        <v>99</v>
-      </c>
-      <c r="B101" s="4" t="s">
+      <c r="A101" s="17"/>
+      <c r="B101" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C101" s="4">
@@ -4377,21 +4358,19 @@
       <c r="I101" s="4">
         <v>4</v>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>23</v>
+      <c r="J101" s="4">
+        <v>2</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="21">
-        <v>100</v>
-      </c>
-      <c r="B102" s="4" t="s">
+      <c r="A102" s="17"/>
+      <c r="B102" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="4">
@@ -4412,8 +4391,8 @@
       <c r="H102" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="4" t="s">
-        <v>13</v>
+      <c r="I102" s="4">
+        <v>4</v>
       </c>
       <c r="J102" s="4">
         <v>2</v>
@@ -4421,15 +4400,13 @@
       <c r="K102" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="4" t="s">
-        <v>14</v>
+      <c r="L102" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="21">
-        <v>101</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="17"/>
+      <c r="B103" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C103" s="4">
@@ -4450,8 +4427,8 @@
       <c r="H103" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="4" t="s">
-        <v>13</v>
+      <c r="I103" s="4">
+        <v>4</v>
       </c>
       <c r="J103" s="4">
         <v>2</v>
@@ -4459,863 +4436,835 @@
       <c r="K103" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="L103" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="17"/>
+      <c r="B104" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="4">
+        <v>4</v>
+      </c>
+      <c r="J104" s="4">
+        <v>3</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+      <c r="B105" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="4">
+        <v>4</v>
+      </c>
+      <c r="J105" s="4">
+        <v>4</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="17"/>
+      <c r="B106" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="13">
+        <v>4</v>
+      </c>
+      <c r="J106" s="13">
+        <v>5</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="7">
+        <v>1</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="17"/>
+      <c r="B108" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="4">
+        <v>4</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="17"/>
+      <c r="B109" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="4">
+        <v>4</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="21">
-        <v>102</v>
-      </c>
-      <c r="B104" s="4" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="17"/>
+      <c r="B110" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C104" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J104" s="4">
+      <c r="C110" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="13">
+        <v>4</v>
+      </c>
+      <c r="J110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="7">
         <v>2</v>
       </c>
-      <c r="K104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104" s="4" t="s">
+      <c r="K111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="17"/>
+      <c r="B112" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="4">
+        <v>2</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="17"/>
+      <c r="B113" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="4">
+        <v>2</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="21">
-        <v>103</v>
-      </c>
-      <c r="B105" s="4" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="17"/>
+      <c r="B114" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" s="4">
+      <c r="C114" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="4">
         <v>3</v>
       </c>
-      <c r="K105" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="4" t="s">
+      <c r="K114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="21">
-        <v>104</v>
-      </c>
-      <c r="B106" s="4" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="17"/>
+      <c r="B115" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C106" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J106" s="4">
+      <c r="C115" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="4">
         <v>4</v>
       </c>
-      <c r="K106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" s="4" t="s">
+      <c r="K115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="21">
-        <v>105</v>
-      </c>
-      <c r="B107" s="4" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C107" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J107" s="4">
+      <c r="C116" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="13">
         <v>5</v>
       </c>
-      <c r="K107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107" s="4" t="s">
+      <c r="K116" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L116" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="21">
-        <v>106</v>
-      </c>
-      <c r="B108" s="4" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H108" s="4">
+      <c r="C117" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" s="7">
         <v>1</v>
       </c>
-      <c r="I108" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L108" s="4" t="s">
+      <c r="I117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L117" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="21">
-        <v>107</v>
-      </c>
-      <c r="B109" s="4" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="17"/>
+      <c r="B118" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H109" s="4">
+      <c r="C118" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="4">
         <v>1</v>
       </c>
-      <c r="I109" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L109" s="4" t="s">
+      <c r="I118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L118" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="21">
-        <v>108</v>
-      </c>
-      <c r="B110" s="4" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="17"/>
+      <c r="B119" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C110" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H110" s="4">
+      <c r="C119" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="13">
         <v>1</v>
       </c>
-      <c r="I110" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K110" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110" s="4" t="s">
+      <c r="I119" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="21">
-        <v>109</v>
-      </c>
-      <c r="B111" s="4" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111" s="4" t="s">
+      <c r="C120" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="21">
-        <v>110</v>
-      </c>
-      <c r="B112" s="4" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="17"/>
+      <c r="B121" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L112" s="4" t="s">
+      <c r="C121" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L121" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="21">
-        <v>111</v>
-      </c>
-      <c r="B113" s="4" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="17"/>
+      <c r="B122" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L113" s="4" t="s">
+      <c r="C122" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L122" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="21">
-        <v>112</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L114" s="4" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="21">
-        <v>113</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L115" s="4" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="17"/>
+      <c r="B124" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L124" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="21">
-        <v>114</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L116" s="4" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="17"/>
+      <c r="B125" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="21">
-        <v>115</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L117" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="21">
-        <v>116</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="21">
-        <v>117</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L119" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="21">
-        <v>118</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="21">
-        <v>119</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="21">
-        <v>120</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K122" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L122" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="21">
-        <v>121</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L123" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="21">
-        <v>122</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L124" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="21">
-        <v>123</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="21">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A126" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="A60:A64"/>
+  <mergeCells count="18">
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A98:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A116"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A48"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="A69:A73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/playground/example_output_ha_all_groups.xlsx
+++ b/playground/example_output_ha_all_groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gercken\Documents\TI_BZE_BE_analysis\playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F54F2B-332D-4FC5-8046-2300CC095FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8EC96-8297-4F3F-8C56-ADEEC1187489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="94">
   <si>
     <t>plot_ID</t>
   </si>
@@ -178,13 +178,151 @@
   </si>
   <si>
     <t>deadwood stocks at the respective plot in the available compartiments, no further grouping variables</t>
+  </si>
+  <si>
+    <t>B_t_ha</t>
+  </si>
+  <si>
+    <t>C_t_ha</t>
+  </si>
+  <si>
+    <t>N_t_ha</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>BA_m2_ha</t>
+  </si>
+  <si>
+    <t>Bestandeskomponente (Oberstand, Verjüngung, Totholz)</t>
+  </si>
+  <si>
+    <t>Bfh Nummer</t>
+  </si>
+  <si>
+    <t>Inventur (BZE3, HBI, …)</t>
+  </si>
+  <si>
+    <t>Inventur Jahr</t>
+  </si>
+  <si>
+    <t>Bestand</t>
+  </si>
+  <si>
+    <t>Baumart gemäß BZE Codierung in x_bart.csv</t>
+  </si>
+  <si>
+    <t>Totholz Baumartengruppe</t>
+  </si>
+  <si>
+    <t>Totholztyp</t>
+  </si>
+  <si>
+    <t>Zersetzungsgrad BZE/ biosoil Kategoriesierung</t>
+  </si>
+  <si>
+    <t>stehend/liegendes Totholz</t>
+  </si>
+  <si>
+    <t>Baum Kompartiment: ag = aboveground = oberirdisch, bg = belowground = unterirdisch, fwb = fine wood inkluding bark = Nichtderbholz (Druchmesser &lt;7cm) inkl. Rinde, sb = solid wood bark = Derbholzrinde (Durchmesser &gt; 7cm) ,  sb = solid wood bark = Derbholz (Durchmesser &gt; 7cm) ohne Rinde, stb = stump bark = Stubbenrinde (oberirdisch aber unter Fällschnitt), stw = Stubbenholz (oberirdisch aber unter Fällschnitt)</t>
+  </si>
+  <si>
+    <t>Biomasse in t /ha</t>
+  </si>
+  <si>
+    <t>Kohlenstoffvorat in t/ ha</t>
+  </si>
+  <si>
+    <t>Stickstoffvorrat in t/ha</t>
+  </si>
+  <si>
+    <t>Grundfläche in m2/ha</t>
+  </si>
+  <si>
+    <t>Ba_percent</t>
+  </si>
+  <si>
+    <t>Grundflächenanteil der jew. Baumart in %</t>
+  </si>
+  <si>
+    <t>dom_SP</t>
+  </si>
+  <si>
+    <t>Dominierende Baumart (pro Hauptbestand, gemessen an größten Grundflächenanteil)</t>
+  </si>
+  <si>
+    <t>stand_type</t>
+  </si>
+  <si>
+    <t>Bestandestyp, gemäß x_besttyp.csv</t>
+  </si>
+  <si>
+    <t>n_stands</t>
+  </si>
+  <si>
+    <t>Anzahl an Beständen pro Plot</t>
+  </si>
+  <si>
+    <t>mean_DBH_cm</t>
+  </si>
+  <si>
+    <t>sd_DBH_cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittlerer Brusthöhendurchmesser in cm </t>
+  </si>
+  <si>
+    <t>Standartabweichung des Brusthöhendurchmessers in cm</t>
+  </si>
+  <si>
+    <t>Dg_cm</t>
+  </si>
+  <si>
+    <t>Brusthöhendurchmesser des Grundflächenmittelstammes in cm</t>
+  </si>
+  <si>
+    <t>mean_BA_m2</t>
+  </si>
+  <si>
+    <t>Mittlere Grundfläche in m2</t>
+  </si>
+  <si>
+    <t>mean_H_m</t>
+  </si>
+  <si>
+    <t>sd_H_m</t>
+  </si>
+  <si>
+    <t>mittlere Einzelbaumhöhe in m</t>
+  </si>
+  <si>
+    <t>Standartabweichung der Einzelbaumhöhe in m</t>
+  </si>
+  <si>
+    <t>Hg_m</t>
+  </si>
+  <si>
+    <t>Höhe des Grtundflächenmittelstammes in m</t>
+  </si>
+  <si>
+    <t>n_ha</t>
+  </si>
+  <si>
+    <t>Stammzahl in N/ha</t>
+  </si>
+  <si>
+    <t>n_SP</t>
+  </si>
+  <si>
+    <t>Baumrtenanzahl in N/Plot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +347,25 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -347,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,9 +548,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -410,8 +557,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,11 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123:A125"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,118 +868,270 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="M2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C3" s="7">
+        <v>140037</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="M3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -849,11 +1163,62 @@
         <v>16</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
@@ -885,11 +1250,62 @@
         <v>16</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
@@ -921,11 +1337,62 @@
         <v>16</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
@@ -957,11 +1424,62 @@
         <v>16</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
@@ -993,11 +1511,62 @@
         <v>16</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
@@ -1029,85 +1598,238 @@
         <v>16</v>
       </c>
       <c r="L9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="12" t="s">
+      <c r="M10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="C11" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="15" t="s">
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="M11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1139,10 +1861,61 @@
         <v>16</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
@@ -1175,10 +1948,61 @@
         <v>16</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>15</v>
@@ -1211,10 +2035,61 @@
         <v>16</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>15</v>
@@ -1247,10 +2122,61 @@
         <v>16</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>15</v>
@@ -1283,10 +2209,61 @@
         <v>16</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -1319,10 +2296,61 @@
         <v>16</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>15</v>
@@ -1355,85 +2383,238 @@
         <v>16</v>
       </c>
       <c r="L18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="12" t="s">
+      <c r="M19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C20" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="H20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="M20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
       <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1465,11 +2646,62 @@
         <v>16</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
@@ -1501,11 +2733,62 @@
         <v>16</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
       <c r="B23" s="10" t="s">
         <v>15</v>
       </c>
@@ -1537,11 +2820,62 @@
         <v>16</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
@@ -1573,11 +2907,62 @@
         <v>16</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -1609,11 +2994,62 @@
         <v>16</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
       <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
@@ -1645,11 +3081,62 @@
         <v>16</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
       <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1681,85 +3168,238 @@
         <v>16</v>
       </c>
       <c r="L27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="12" t="s">
+      <c r="M28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="15" t="s">
+      <c r="C29" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="M29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="S29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="T29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="V29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="X29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC29" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1791,11 +3431,62 @@
         <v>16</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC30" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1827,11 +3518,62 @@
         <v>16</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
       <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
@@ -1863,11 +3605,62 @@
         <v>16</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
       <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
@@ -1899,11 +3692,62 @@
         <v>16</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
       <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1935,11 +3779,62 @@
         <v>16</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC34" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1971,11 +3866,62 @@
         <v>16</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -2007,85 +3953,238 @@
         <v>16</v>
       </c>
       <c r="L36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="12" t="s">
+      <c r="M37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="13" t="s">
+      <c r="C38" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="15" t="s">
+      <c r="H38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="M38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="S38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="T38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="X38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC38" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
@@ -2117,10 +4216,61 @@
         <v>16</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>15</v>
@@ -2153,10 +4303,61 @@
         <v>16</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>15</v>
@@ -2189,10 +4390,61 @@
         <v>16</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>15</v>
@@ -2225,10 +4477,61 @@
         <v>16</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>15</v>
@@ -2261,10 +4564,61 @@
         <v>16</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>15</v>
@@ -2297,10 +4651,61 @@
         <v>16</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>15</v>
@@ -2333,85 +4738,238 @@
         <v>16</v>
       </c>
       <c r="L45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="4">
+        <v>1</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="12" t="s">
+      <c r="M46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="4">
+        <v>1</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="15" t="s">
+      <c r="C47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="M47" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="13">
+        <v>1</v>
+      </c>
+      <c r="T47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB47" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC47" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
       <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
@@ -2428,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>16</v>
@@ -2443,11 +5001,23 @@
         <v>16</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
       <c r="B49" s="10" t="s">
         <v>26</v>
       </c>
@@ -2479,11 +5049,23 @@
         <v>16</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
       <c r="B50" s="10" t="s">
         <v>26</v>
       </c>
@@ -2515,11 +5097,23 @@
         <v>16</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
       <c r="B51" s="10" t="s">
         <v>26</v>
       </c>
@@ -2551,11 +5145,23 @@
         <v>16</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
       <c r="B52" s="10" t="s">
         <v>26</v>
       </c>
@@ -2587,11 +5193,23 @@
         <v>16</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
       <c r="B53" s="10" t="s">
         <v>26</v>
       </c>
@@ -2608,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>16</v>
@@ -2623,11 +5241,23 @@
         <v>16</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
       <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
@@ -2659,11 +5289,23 @@
         <v>16</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
       <c r="B55" s="10" t="s">
         <v>26</v>
       </c>
@@ -2695,11 +5337,23 @@
         <v>16</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
       <c r="B56" s="10" t="s">
         <v>26</v>
       </c>
@@ -2731,85 +5385,121 @@
         <v>16</v>
       </c>
       <c r="L56" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="12" t="s">
+      <c r="M57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="13" t="s">
+      <c r="C58" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G58" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="15" t="s">
+      <c r="H58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="M58" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O58" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P58" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
       <c r="B59" s="10" t="s">
         <v>26</v>
       </c>
@@ -2826,7 +5516,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>16</v>
@@ -2841,11 +5531,23 @@
         <v>16</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
       <c r="B60" s="10" t="s">
         <v>26</v>
       </c>
@@ -2877,11 +5579,23 @@
         <v>16</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
       <c r="B61" s="10" t="s">
         <v>26</v>
       </c>
@@ -2913,11 +5627,23 @@
         <v>16</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
       <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
@@ -2949,11 +5675,23 @@
         <v>16</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
       <c r="B63" s="10" t="s">
         <v>26</v>
       </c>
@@ -2985,11 +5723,23 @@
         <v>16</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
       <c r="B64" s="10" t="s">
         <v>26</v>
       </c>
@@ -3006,7 +5756,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>16</v>
@@ -3021,11 +5771,23 @@
         <v>16</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
       <c r="B65" s="10" t="s">
         <v>26</v>
       </c>
@@ -3057,11 +5819,23 @@
         <v>16</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
       <c r="B66" s="10" t="s">
         <v>26</v>
       </c>
@@ -3093,11 +5867,23 @@
         <v>16</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
       <c r="B67" s="10" t="s">
         <v>26</v>
       </c>
@@ -3129,85 +5915,121 @@
         <v>16</v>
       </c>
       <c r="L67" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="12" t="s">
+      <c r="M68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="13" t="s">
+      <c r="C69" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68" s="15" t="s">
+      <c r="H69" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="M69" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N69" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O69" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P69" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
       <c r="B70" s="10" t="s">
         <v>26</v>
       </c>
@@ -3239,11 +6061,23 @@
         <v>16</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
       <c r="B71" s="10" t="s">
         <v>26</v>
       </c>
@@ -3275,11 +6109,23 @@
         <v>16</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
       <c r="B72" s="10" t="s">
         <v>26</v>
       </c>
@@ -3311,85 +6157,121 @@
         <v>16</v>
       </c>
       <c r="L72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="12" t="s">
+      <c r="M73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="13" t="s">
+      <c r="C74" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L73" s="15" t="s">
+      <c r="G74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="M74" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N74" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O74" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -3421,11 +6303,23 @@
         <v>16</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
       <c r="B76" s="10" t="s">
         <v>26</v>
       </c>
@@ -3457,11 +6351,23 @@
         <v>16</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
       <c r="B77" s="10" t="s">
         <v>26</v>
       </c>
@@ -3493,85 +6399,121 @@
         <v>16</v>
       </c>
       <c r="L77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="12" t="s">
+      <c r="M78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L78" s="15" t="s">
+      <c r="C79" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
+      <c r="M79" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N79" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O79" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P79" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="7">
-        <v>1</v>
-      </c>
-      <c r="I79" s="7">
-        <v>1</v>
-      </c>
-      <c r="J79" s="7">
-        <v>2</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
       <c r="B80" s="10" t="s">
         <v>29</v>
       </c>
@@ -3597,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>16</v>
@@ -3605,9 +6547,21 @@
       <c r="L80" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="M80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
       <c r="B81" s="10" t="s">
         <v>29</v>
       </c>
@@ -3633,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>16</v>
@@ -3641,9 +6595,21 @@
       <c r="L81" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="M81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
       <c r="B82" s="10" t="s">
         <v>29</v>
       </c>
@@ -3666,10 +6632,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
         <v>4</v>
-      </c>
-      <c r="J82" s="4">
-        <v>2</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>16</v>
@@ -3677,9 +6643,21 @@
       <c r="L82" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+      <c r="M82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
       <c r="B83" s="10" t="s">
         <v>29</v>
       </c>
@@ -3711,11 +6689,23 @@
         <v>16</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
       <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
@@ -3747,11 +6737,23 @@
         <v>16</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
       <c r="B85" s="10" t="s">
         <v>29</v>
       </c>
@@ -3777,17 +6779,29 @@
         <v>4</v>
       </c>
       <c r="J85" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
       <c r="B86" s="10" t="s">
         <v>29</v>
       </c>
@@ -3813,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="J86" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>16</v>
@@ -3821,83 +6835,119 @@
       <c r="L86" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="12" t="s">
+      <c r="M86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="13">
+      <c r="C87" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="4">
         <v>1</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="4">
         <v>4</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="4">
+        <v>4</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="13">
+        <v>1</v>
+      </c>
+      <c r="I88" s="13">
+        <v>4</v>
+      </c>
+      <c r="J88" s="13">
         <v>5</v>
       </c>
-      <c r="K87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87" s="15" t="s">
+      <c r="K88" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="M88" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N88" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O88" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P88" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="7">
-        <v>1</v>
-      </c>
-      <c r="I88" s="7">
-        <v>1</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
       <c r="B89" s="10" t="s">
         <v>29</v>
       </c>
@@ -3920,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>13</v>
@@ -3931,9 +6981,21 @@
       <c r="L89" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+      <c r="M89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
       <c r="B90" s="10" t="s">
         <v>29</v>
       </c>
@@ -3965,85 +7027,121 @@
         <v>16</v>
       </c>
       <c r="L90" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="19"/>
+      <c r="B91" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1</v>
+      </c>
+      <c r="I91" s="4">
+        <v>4</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="12" t="s">
+      <c r="M91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="B92" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="13">
+      <c r="C92" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="13">
         <v>1</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>4</v>
       </c>
-      <c r="J91" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K91" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="15" t="s">
+      <c r="J92" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
+      <c r="M92" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N92" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O92" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P92" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="7">
-        <v>1</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="7">
-        <v>2</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
       <c r="B93" s="10" t="s">
         <v>29</v>
       </c>
@@ -4075,11 +7173,23 @@
         <v>16</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="19"/>
       <c r="B94" s="10" t="s">
         <v>29</v>
       </c>
@@ -4111,11 +7221,23 @@
         <v>16</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
       <c r="B95" s="10" t="s">
         <v>29</v>
       </c>
@@ -4141,17 +7263,29 @@
         <v>13</v>
       </c>
       <c r="J95" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
       <c r="B96" s="10" t="s">
         <v>29</v>
       </c>
@@ -4177,7 +7311,7 @@
         <v>13</v>
       </c>
       <c r="J96" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>16</v>
@@ -4185,83 +7319,119 @@
       <c r="L96" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="12" t="s">
+      <c r="M96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="13">
+      <c r="C97" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="4">
         <v>1</v>
       </c>
-      <c r="I97" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="13">
+      <c r="I97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="4">
+        <v>4</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="13">
+        <v>1</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="13">
         <v>5</v>
       </c>
-      <c r="K97" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97" s="15" t="s">
+      <c r="K98" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
+      <c r="M98" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N98" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O98" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P98" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="7">
-        <v>1</v>
-      </c>
-      <c r="J98" s="7">
-        <v>2</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L98" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
       <c r="B99" s="10" t="s">
         <v>29</v>
       </c>
@@ -4287,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>16</v>
@@ -4295,9 +7465,21 @@
       <c r="L99" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
+      <c r="M99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="19"/>
       <c r="B100" s="10" t="s">
         <v>29</v>
       </c>
@@ -4323,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>16</v>
@@ -4331,9 +7513,21 @@
       <c r="L100" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
+      <c r="M100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
       <c r="B101" s="10" t="s">
         <v>29</v>
       </c>
@@ -4356,10 +7550,10 @@
         <v>13</v>
       </c>
       <c r="I101" s="4">
+        <v>1</v>
+      </c>
+      <c r="J101" s="4">
         <v>4</v>
-      </c>
-      <c r="J101" s="4">
-        <v>2</v>
       </c>
       <c r="K101" s="5" t="s">
         <v>16</v>
@@ -4367,9 +7561,21 @@
       <c r="L101" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
+      <c r="M101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
       <c r="B102" s="10" t="s">
         <v>29</v>
       </c>
@@ -4401,11 +7607,23 @@
         <v>16</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="19"/>
       <c r="B103" s="10" t="s">
         <v>29</v>
       </c>
@@ -4437,11 +7655,23 @@
         <v>16</v>
       </c>
       <c r="L103" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="19"/>
       <c r="B104" s="10" t="s">
         <v>29</v>
       </c>
@@ -4467,17 +7697,29 @@
         <v>4</v>
       </c>
       <c r="J104" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="19"/>
       <c r="B105" s="10" t="s">
         <v>29</v>
       </c>
@@ -4503,7 +7745,7 @@
         <v>4</v>
       </c>
       <c r="J105" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>16</v>
@@ -4511,83 +7753,119 @@
       <c r="L105" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
-      <c r="B106" s="12" t="s">
+      <c r="M105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="19"/>
+      <c r="B106" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C106" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="13">
+      <c r="C106" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="4">
         <v>4</v>
       </c>
-      <c r="J106" s="13">
+      <c r="J106" s="4">
+        <v>4</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="20"/>
+      <c r="B107" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="13">
+        <v>4</v>
+      </c>
+      <c r="J107" s="13">
         <v>5</v>
       </c>
-      <c r="K106" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" s="15" t="s">
+      <c r="K107" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="M107" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N107" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O107" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P107" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="7">
-        <v>1</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L107" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
       <c r="B108" s="10" t="s">
         <v>29</v>
       </c>
@@ -4610,7 +7888,7 @@
         <v>13</v>
       </c>
       <c r="I108" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>13</v>
@@ -4621,9 +7899,21 @@
       <c r="L108" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
+      <c r="M108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="19"/>
       <c r="B109" s="10" t="s">
         <v>29</v>
       </c>
@@ -4655,85 +7945,121 @@
         <v>30</v>
       </c>
       <c r="L109" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="19"/>
+      <c r="B110" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="4">
+        <v>4</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="12" t="s">
+      <c r="M110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="20"/>
+      <c r="B111" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C110" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" s="13">
+      <c r="C111" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="13">
         <v>4</v>
       </c>
-      <c r="J110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K110" s="13" t="s">
+      <c r="J111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L110" s="15" t="s">
+      <c r="L111" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="M111" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N111" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O111" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P111" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C111" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" s="7">
-        <v>2</v>
-      </c>
-      <c r="K111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
       <c r="B112" s="10" t="s">
         <v>29</v>
       </c>
@@ -4765,11 +8091,23 @@
         <v>16</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A113" s="19"/>
       <c r="B113" s="10" t="s">
         <v>29</v>
       </c>
@@ -4801,11 +8139,23 @@
         <v>16</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A114" s="19"/>
       <c r="B114" s="10" t="s">
         <v>29</v>
       </c>
@@ -4831,17 +8181,29 @@
         <v>13</v>
       </c>
       <c r="J114" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A115" s="19"/>
       <c r="B115" s="10" t="s">
         <v>29</v>
       </c>
@@ -4867,7 +8229,7 @@
         <v>13</v>
       </c>
       <c r="J115" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>16</v>
@@ -4875,83 +8237,119 @@
       <c r="L115" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
-      <c r="B116" s="12" t="s">
+      <c r="M115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A116" s="19"/>
+      <c r="B116" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J116" s="13">
+      <c r="C116" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="4">
+        <v>4</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
+      <c r="B117" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="13">
         <v>5</v>
       </c>
-      <c r="K116" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L116" s="15" t="s">
+      <c r="K117" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L117" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="M117" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N117" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O117" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P117" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C117" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H117" s="7">
-        <v>1</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L117" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="17"/>
       <c r="B118" s="10" t="s">
         <v>29</v>
       </c>
@@ -4983,85 +8381,121 @@
         <v>16</v>
       </c>
       <c r="L118" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A119" s="19"/>
+      <c r="B119" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="4">
+        <v>1</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="17"/>
-      <c r="B119" s="12" t="s">
+      <c r="M119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="20"/>
+      <c r="B120" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" s="13">
+      <c r="C120" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="13">
         <v>1</v>
       </c>
-      <c r="I119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K119" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L119" s="15" t="s">
+      <c r="I120" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
+      <c r="M120" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N120" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O120" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P120" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
       <c r="B121" s="10" t="s">
         <v>29</v>
       </c>
@@ -5093,178 +8527,403 @@
         <v>16</v>
       </c>
       <c r="L121" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A122" s="19"/>
+      <c r="B122" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L122" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
-      <c r="B122" s="12" t="s">
+      <c r="M122" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="20"/>
+      <c r="B123" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C122" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K122" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L122" s="15" t="s">
+      <c r="C123" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="M123" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N123" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O123" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P123" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="7">
-        <v>140037</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L123" s="9" t="s">
+      <c r="B124" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L124" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="17"/>
-      <c r="B124" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="4">
-        <v>140037</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L124" s="11" t="s">
+      <c r="M124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R124" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="S124" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="T124" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="U124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC124" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A125" s="19"/>
+      <c r="B125" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="4">
+        <v>140037</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="17"/>
-      <c r="B125" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="13">
-        <v>140037</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I125" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J125" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K125" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L125" s="15" t="s">
+      <c r="M125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R125" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="S125" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="T125" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="U125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC125" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20"/>
+      <c r="B126" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="13">
+        <v>140037</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L126" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
+      <c r="M126" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N126" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O126" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R126" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="S126" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="T126" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="U126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB126" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC126" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A98:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A47:A57"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A58:A68"/>
-    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A48:A58"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A59:A69"/>
+    <mergeCell ref="A70:A74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/playground/example_output_ha_all_groups.xlsx
+++ b/playground/example_output_ha_all_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gercken\Documents\TI_BZE_BE_analysis\playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78301B6C-7AC8-4762-A72F-602CAFAF4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172793FE-0433-4D20-98DB-D1596C1322FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -877,18 +877,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1796875" style="21"/>
+    <col min="2" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
@@ -980,7 +980,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1073,7 +1073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>33</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
       <c r="B4" s="8" t="s">
         <v>15</v>
@@ -1261,7 +1261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
         <v>15</v>
@@ -1354,7 +1354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="8" t="s">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>15</v>
@@ -1540,7 +1540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
         <v>15</v>
@@ -1633,7 +1633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="8" t="s">
         <v>15</v>
@@ -1726,7 +1726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
@@ -1819,7 +1819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="11" t="s">
         <v>15</v>
@@ -1912,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>31</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>15</v>
@@ -2100,7 +2100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
         <v>15</v>
@@ -2193,7 +2193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
@@ -2286,7 +2286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>15</v>
@@ -2379,7 +2379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
         <v>15</v>
@@ -2472,7 +2472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="27"/>
       <c r="B18" s="8" t="s">
         <v>15</v>
@@ -2565,7 +2565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>15</v>
@@ -2658,7 +2658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27"/>
       <c r="B20" s="11" t="s">
         <v>15</v>
@@ -2751,7 +2751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>32</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="8" t="s">
         <v>15</v>
@@ -2939,7 +2939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
       <c r="B23" s="8" t="s">
         <v>15</v>
@@ -3032,7 +3032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
         <v>15</v>
@@ -3125,7 +3125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
         <v>15</v>
@@ -3218,7 +3218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="24"/>
       <c r="B26" s="8" t="s">
         <v>15</v>
@@ -3311,7 +3311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="24"/>
       <c r="B27" s="8" t="s">
         <v>15</v>
@@ -3404,7 +3404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
       <c r="B28" s="8" t="s">
         <v>15</v>
@@ -3497,7 +3497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
       <c r="B29" s="11" t="s">
         <v>15</v>
@@ -3590,7 +3590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>34</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
       <c r="B31" s="8" t="s">
         <v>15</v>
@@ -3778,7 +3778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
       <c r="B32" s="8" t="s">
         <v>15</v>
@@ -3871,7 +3871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
       <c r="B33" s="8" t="s">
         <v>15</v>
@@ -3964,7 +3964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
       <c r="B34" s="8" t="s">
         <v>15</v>
@@ -4057,7 +4057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
       <c r="B35" s="8" t="s">
         <v>15</v>
@@ -4150,7 +4150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
       <c r="B36" s="8" t="s">
         <v>15</v>
@@ -4243,7 +4243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
       <c r="B37" s="8" t="s">
         <v>15</v>
@@ -4336,7 +4336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25"/>
       <c r="B38" s="11" t="s">
         <v>15</v>
@@ -4429,7 +4429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>41</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" s="27"/>
       <c r="B40" s="8" t="s">
         <v>15</v>
@@ -4617,7 +4617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" s="27"/>
       <c r="B41" s="8" t="s">
         <v>15</v>
@@ -4710,7 +4710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" s="27"/>
       <c r="B42" s="8" t="s">
         <v>15</v>
@@ -4803,7 +4803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" s="27"/>
       <c r="B43" s="8" t="s">
         <v>15</v>
@@ -4896,7 +4896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" s="27"/>
       <c r="B44" s="8" t="s">
         <v>15</v>
@@ -4989,7 +4989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" s="27"/>
       <c r="B45" s="8" t="s">
         <v>15</v>
@@ -5082,7 +5082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" s="27"/>
       <c r="B46" s="8" t="s">
         <v>15</v>
@@ -5175,7 +5175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="28"/>
       <c r="B47" s="11" t="s">
         <v>15</v>
@@ -5268,7 +5268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>35</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" s="24"/>
       <c r="B49" s="8" t="s">
         <v>26</v>
@@ -5456,7 +5456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" s="24"/>
       <c r="B50" s="8" t="s">
         <v>26</v>
@@ -5549,7 +5549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" s="24"/>
       <c r="B51" s="8" t="s">
         <v>26</v>
@@ -5642,7 +5642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" s="24"/>
       <c r="B52" s="8" t="s">
         <v>26</v>
@@ -5735,7 +5735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" s="24"/>
       <c r="B53" s="8" t="s">
         <v>26</v>
@@ -5828,7 +5828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" s="24"/>
       <c r="B54" s="8" t="s">
         <v>26</v>
@@ -5921,7 +5921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="24"/>
       <c r="B55" s="8" t="s">
         <v>26</v>
@@ -6014,7 +6014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="24"/>
       <c r="B56" s="8" t="s">
         <v>26</v>
@@ -6107,7 +6107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" s="24"/>
       <c r="B57" s="8" t="s">
         <v>26</v>
@@ -6200,7 +6200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="25"/>
       <c r="B58" s="11" t="s">
         <v>26</v>
@@ -6293,7 +6293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
         <v>36</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" s="24"/>
       <c r="B60" s="8" t="s">
         <v>26</v>
@@ -6481,7 +6481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" s="24"/>
       <c r="B61" s="8" t="s">
         <v>26</v>
@@ -6574,7 +6574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" s="24"/>
       <c r="B62" s="8" t="s">
         <v>26</v>
@@ -6667,7 +6667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" s="24"/>
       <c r="B63" s="8" t="s">
         <v>26</v>
@@ -6760,7 +6760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" s="24"/>
       <c r="B64" s="8" t="s">
         <v>26</v>
@@ -6853,7 +6853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" s="24"/>
       <c r="B65" s="8" t="s">
         <v>26</v>
@@ -6946,7 +6946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" s="24"/>
       <c r="B66" s="8" t="s">
         <v>26</v>
@@ -7039,7 +7039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" s="24"/>
       <c r="B67" s="8" t="s">
         <v>26</v>
@@ -7132,7 +7132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" s="24"/>
       <c r="B68" s="8" t="s">
         <v>26</v>
@@ -7225,7 +7225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="25"/>
       <c r="B69" s="11" t="s">
         <v>26</v>
@@ -7318,7 +7318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
         <v>36</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" s="24"/>
       <c r="B71" s="8" t="s">
         <v>26</v>
@@ -7506,7 +7506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" s="24"/>
       <c r="B72" s="8" t="s">
         <v>26</v>
@@ -7599,7 +7599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" s="24"/>
       <c r="B73" s="8" t="s">
         <v>26</v>
@@ -7692,7 +7692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="25"/>
       <c r="B74" s="11" t="s">
         <v>26</v>
@@ -7785,7 +7785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
         <v>37</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" s="24"/>
       <c r="B76" s="8" t="s">
         <v>26</v>
@@ -7973,7 +7973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" s="24"/>
       <c r="B77" s="8" t="s">
         <v>26</v>
@@ -8066,7 +8066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A78" s="24"/>
       <c r="B78" s="8" t="s">
         <v>26</v>
@@ -8159,7 +8159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="11" t="s">
         <v>26</v>
@@ -8252,7 +8252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
         <v>40</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" s="24"/>
       <c r="B81" s="8" t="s">
         <v>29</v>
@@ -8440,7 +8440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A82" s="24"/>
       <c r="B82" s="8" t="s">
         <v>29</v>
@@ -8533,7 +8533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" s="24"/>
       <c r="B83" s="8" t="s">
         <v>29</v>
@@ -8626,7 +8626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" s="24"/>
       <c r="B84" s="8" t="s">
         <v>29</v>
@@ -8719,7 +8719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" s="24"/>
       <c r="B85" s="8" t="s">
         <v>29</v>
@@ -8812,7 +8812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A86" s="24"/>
       <c r="B86" s="8" t="s">
         <v>29</v>
@@ -8905,7 +8905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A87" s="24"/>
       <c r="B87" s="8" t="s">
         <v>29</v>
@@ -8998,7 +8998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="11" t="s">
         <v>29</v>
@@ -9091,7 +9091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A89" s="23" t="s">
         <v>39</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90" s="24"/>
       <c r="B90" s="8" t="s">
         <v>29</v>
@@ -9279,7 +9279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91" s="24"/>
       <c r="B91" s="8" t="s">
         <v>29</v>
@@ -9372,7 +9372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="25"/>
       <c r="B92" s="11" t="s">
         <v>29</v>
@@ -9465,7 +9465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
         <v>38</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A94" s="24"/>
       <c r="B94" s="8" t="s">
         <v>29</v>
@@ -9653,7 +9653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A95" s="24"/>
       <c r="B95" s="8" t="s">
         <v>29</v>
@@ -9746,7 +9746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A96" s="24"/>
       <c r="B96" s="8" t="s">
         <v>29</v>
@@ -9839,7 +9839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" s="24"/>
       <c r="B97" s="8" t="s">
         <v>29</v>
@@ -9932,7 +9932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="11" t="s">
         <v>29</v>
@@ -10025,7 +10025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
         <v>42</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A100" s="24"/>
       <c r="B100" s="8" t="s">
         <v>29</v>
@@ -10213,7 +10213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A101" s="24"/>
       <c r="B101" s="8" t="s">
         <v>29</v>
@@ -10306,7 +10306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A102" s="24"/>
       <c r="B102" s="8" t="s">
         <v>29</v>
@@ -10399,7 +10399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" s="24"/>
       <c r="B103" s="8" t="s">
         <v>29</v>
@@ -10492,7 +10492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A104" s="24"/>
       <c r="B104" s="8" t="s">
         <v>29</v>
@@ -10585,7 +10585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A105" s="24"/>
       <c r="B105" s="8" t="s">
         <v>29</v>
@@ -10678,7 +10678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A106" s="24"/>
       <c r="B106" s="8" t="s">
         <v>29</v>
@@ -10771,7 +10771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="25"/>
       <c r="B107" s="11" t="s">
         <v>29</v>
@@ -10864,7 +10864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
         <v>44</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A109" s="24"/>
       <c r="B109" s="8" t="s">
         <v>29</v>
@@ -11052,7 +11052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A110" s="24"/>
       <c r="B110" s="8" t="s">
         <v>29</v>
@@ -11145,7 +11145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="25"/>
       <c r="B111" s="11" t="s">
         <v>29</v>
@@ -11238,7 +11238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
         <v>45</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A113" s="24"/>
       <c r="B113" s="8" t="s">
         <v>29</v>
@@ -11426,7 +11426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A114" s="24"/>
       <c r="B114" s="8" t="s">
         <v>29</v>
@@ -11519,7 +11519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A115" s="24"/>
       <c r="B115" s="8" t="s">
         <v>29</v>
@@ -11612,7 +11612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A116" s="24"/>
       <c r="B116" s="8" t="s">
         <v>29</v>
@@ -11705,7 +11705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="25"/>
       <c r="B117" s="11" t="s">
         <v>29</v>
@@ -11798,7 +11798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
         <v>46</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A119" s="24"/>
       <c r="B119" s="8" t="s">
         <v>29</v>
@@ -11986,7 +11986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="25"/>
       <c r="B120" s="11" t="s">
         <v>29</v>
@@ -12079,7 +12079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
         <v>47</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A122" s="24"/>
       <c r="B122" s="8" t="s">
         <v>29</v>
@@ -12267,7 +12267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="25"/>
       <c r="B123" s="11" t="s">
         <v>29</v>
@@ -12360,7 +12360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
         <v>43</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A125" s="24"/>
       <c r="B125" s="8" t="s">
         <v>13</v>
@@ -12548,7 +12548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="25"/>
       <c r="B126" s="11" t="s">
         <v>13</v>
@@ -12641,16 +12641,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A127" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="A48:A58"/>
     <mergeCell ref="A118:A120"/>
     <mergeCell ref="A121:A123"/>
     <mergeCell ref="A124:A126"/>
@@ -12664,6 +12659,11 @@
     <mergeCell ref="A89:A92"/>
     <mergeCell ref="A59:A69"/>
     <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A48:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
